--- a/WEM_transformed_data.xlsx
+++ b/WEM_transformed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,15 +624,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8220</v>
+        <v>8775</v>
       </c>
     </row>
     <row r="12">
@@ -642,15 +642,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8520</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="13">
@@ -660,15 +660,15 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17348.72</v>
+        <v>17702.68</v>
       </c>
     </row>
     <row r="14">
@@ -678,11 +678,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -696,11 +696,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18023.09</v>
+        <v>18043.21</v>
       </c>
     </row>
     <row r="17">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10440</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="18">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11040</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="19">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18697.45</v>
+        <v>17348.72</v>
       </c>
     </row>
     <row r="20">
@@ -786,11 +786,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -804,11 +804,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -822,15 +822,15 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17996.83</v>
+        <v>18023.09</v>
       </c>
     </row>
     <row r="23">
@@ -840,15 +840,15 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10995</v>
+        <v>10440</v>
       </c>
     </row>
     <row r="24">
@@ -858,15 +858,15 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11670</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="25">
@@ -876,15 +876,15 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18995.25</v>
+        <v>18697.45</v>
       </c>
     </row>
     <row r="26">
@@ -894,15 +894,15 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12660</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="27">
@@ -912,15 +912,15 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13560</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="28">
@@ -930,15 +930,15 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>19993.67</v>
+        <v>19371.81</v>
       </c>
     </row>
     <row r="29">
@@ -948,15 +948,15 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10440</v>
+        <v>12660</v>
       </c>
     </row>
     <row r="30">
@@ -966,15 +966,15 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11040</v>
+        <v>13560</v>
       </c>
     </row>
     <row r="31">
@@ -984,15 +984,15 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>18619.56</v>
+        <v>20046.17</v>
       </c>
     </row>
     <row r="32">
@@ -1002,15 +1002,15 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>12660</v>
+        <v>9330</v>
       </c>
     </row>
     <row r="33">
@@ -1020,15 +1020,15 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>13560</v>
+        <v>9780</v>
       </c>
     </row>
     <row r="34">
@@ -1038,15 +1038,15 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>19929.33</v>
+        <v>17996.83</v>
       </c>
     </row>
     <row r="35">
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14880</v>
+        <v>10995</v>
       </c>
     </row>
     <row r="36">
@@ -1074,15 +1074,15 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16080</v>
+        <v>11670</v>
       </c>
     </row>
     <row r="37">
@@ -1092,15 +1092,15 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>21239.11</v>
+        <v>18995.25</v>
       </c>
     </row>
     <row r="38">
@@ -1110,15 +1110,15 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11550</v>
+        <v>12660</v>
       </c>
     </row>
     <row r="39">
@@ -1128,15 +1128,15 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>12300</v>
+        <v>13560</v>
       </c>
     </row>
     <row r="40">
@@ -1146,15 +1146,15 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>19211.41</v>
+        <v>19993.67</v>
       </c>
     </row>
     <row r="41">
@@ -1164,11 +1164,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1182,11 +1182,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1200,15 +1200,15 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20817.11</v>
+        <v>20992.08</v>
       </c>
     </row>
     <row r="44">
@@ -1218,15 +1218,15 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>17100</v>
+        <v>15990</v>
       </c>
     </row>
     <row r="45">
@@ -1236,15 +1236,15 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>18600</v>
+        <v>17340</v>
       </c>
     </row>
     <row r="46">
@@ -1254,15 +1254,15 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>22422.82</v>
+        <v>21990.5</v>
       </c>
     </row>
     <row r="47">
@@ -1276,11 +1276,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12660</v>
+        <v>10440</v>
       </c>
     </row>
     <row r="48">
@@ -1294,11 +1294,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>13560</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="49">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>19767.34</v>
+        <v>18619.56</v>
       </c>
     </row>
     <row r="50">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>15990</v>
+        <v>12660</v>
       </c>
     </row>
     <row r="51">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17340</v>
+        <v>13560</v>
       </c>
     </row>
     <row r="52">
@@ -1366,11 +1366,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21651</v>
+        <v>19929.33</v>
       </c>
     </row>
     <row r="53">
@@ -1384,11 +1384,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>19320</v>
+        <v>14880</v>
       </c>
     </row>
     <row r="54">
@@ -1402,11 +1402,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>21120</v>
+        <v>16080</v>
       </c>
     </row>
     <row r="55">
@@ -1420,11 +1420,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>23534.67</v>
+        <v>21239.11</v>
       </c>
     </row>
     <row r="56">
@@ -1434,15 +1434,15 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13770</v>
+        <v>17100</v>
       </c>
     </row>
     <row r="57">
@@ -1452,15 +1452,15 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>14820</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="58">
@@ -1470,15 +1470,15 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>20282.75</v>
+        <v>22548.89</v>
       </c>
     </row>
     <row r="59">
@@ -1488,15 +1488,15 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>17655</v>
+        <v>19320</v>
       </c>
     </row>
     <row r="60">
@@ -1506,15 +1506,15 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>19230</v>
+        <v>21120</v>
       </c>
     </row>
     <row r="61">
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>22424.13</v>
+        <v>23858.67</v>
       </c>
     </row>
     <row r="62">
@@ -1542,15 +1542,15 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>21540</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="63">
@@ -1560,15 +1560,15 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>23640</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="64">
@@ -1578,15 +1578,15 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>24565.51</v>
+        <v>19211.41</v>
       </c>
     </row>
     <row r="65">
@@ -1596,15 +1596,15 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>14880</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="66">
@@ -1614,15 +1614,15 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>16080</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="67">
@@ -1632,15 +1632,15 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>20753.6</v>
+        <v>20817.11</v>
       </c>
     </row>
     <row r="68">
@@ -1650,15 +1650,15 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>19320</v>
+        <v>17100</v>
       </c>
     </row>
     <row r="69">
@@ -1668,15 +1668,15 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>21120</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="70">
@@ -1686,15 +1686,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23130.4</v>
+        <v>22422.82</v>
       </c>
     </row>
     <row r="71">
@@ -1704,15 +1704,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>23760</v>
+        <v>19875</v>
       </c>
     </row>
     <row r="72">
@@ -1722,15 +1722,15 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26160</v>
+        <v>21750</v>
       </c>
     </row>
     <row r="73">
@@ -1740,15 +1740,879 @@
         </is>
       </c>
       <c r="B73" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>24028.52</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>22650</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>25634.23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>12660</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>13560</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>19767.34</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>15990</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>17340</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>21651</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
         <v>20000</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>19320</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>21120</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>23534.67</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>22650</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>25418.34</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>25980</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>28680</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>27302.01</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>13770</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>14820</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20282.75</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>17655</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>19230</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>22424.13</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>21540</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>23640</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>24565.51</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>25425</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>28050</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>26706.89</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>29310</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>32460</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>28848.26</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D107" t="n">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>16080</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20753.6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>19320</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>21120</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>23130.4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>23760</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>26160</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
         <v>25507.21</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>27884.01</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Skoda Scala TSI</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>32640</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Skoda Scala TDI</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>36240</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Hyundai Kona</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>30260.81</v>
       </c>
     </row>
   </sheetData>
